--- a/AFS/VendorReconciliation/static/VRS-Report-Template.xlsx
+++ b/AFS/VendorReconciliation/static/VRS-Report-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AdventsProduct\V1.1.0\AFS\VendorReconciliation\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383E49CE-3672-4E98-B800-AFA25D436038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DEED99-35D6-4D51-BD0A-73FA562EEBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -1023,7 +1023,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C4:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1224,8 +1224,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:D30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1331,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="43">
-        <f>'Thermax DR &amp; CR'!N4</f>
+        <f>'Thermax DR &amp; CR'!S4</f>
         <v>0</v>
       </c>
     </row>

--- a/AFS/VendorReconciliation/static/VRS-Report-Template.xlsx
+++ b/AFS/VendorReconciliation/static/VRS-Report-Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AdventsProduct\V1.1.0\AFS\VendorReconciliation\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DEED99-35D6-4D51-BD0A-73FA562EEBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4545C1CB-4497-48A8-8562-B6A25E3CFFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>2021-02-26</t>
   </si>
@@ -72,18 +72,6 @@
     <t>Balance as per Vendor</t>
   </si>
   <si>
-    <t>Thermax not Debited</t>
-  </si>
-  <si>
-    <t>Credited by Vendor but not accounted</t>
-  </si>
-  <si>
-    <t>Debited by Vendor but not accounted</t>
-  </si>
-  <si>
-    <t>Deposited but not Credited</t>
-  </si>
-  <si>
     <t>Excess / Less Debited &amp; Credited by Vendor</t>
   </si>
   <si>
@@ -235,6 +223,21 @@
   </si>
   <si>
     <t>REMARKS</t>
+  </si>
+  <si>
+    <t>Payment Made by Thermax not accounted by Vendor</t>
+  </si>
+  <si>
+    <t>Purchases Not Accounted By Thermax</t>
+  </si>
+  <si>
+    <t>Debited by Vendor but not accounted by Thermax</t>
+  </si>
+  <si>
+    <t>Invoices Accounted By Thermax But not accounted by Vendor</t>
+  </si>
+  <si>
+    <t>INVOICE NO</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -682,6 +685,7 @@
     </xf>
     <xf numFmtId="15" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1040,15 +1044,15 @@
     <row r="4" spans="3:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C5" s="27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" s="29"/>
     </row>
@@ -1060,13 +1064,13 @@
     </row>
     <row r="9" spans="3:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C9" s="30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9" s="31"/>
     </row>
     <row r="10" spans="3:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>0</v>
@@ -1074,7 +1078,7 @@
     </row>
     <row r="11" spans="3:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="32" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>0</v>
@@ -1082,43 +1086,43 @@
     </row>
     <row r="12" spans="3:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="3:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C13" s="32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="33"/>
     </row>
     <row r="14" spans="3:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C14" s="32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="3:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C15" s="32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D15" s="33"/>
     </row>
     <row r="16" spans="3:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C16" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D16" s="33"/>
     </row>
     <row r="17" spans="3:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C17" s="32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D17" s="33"/>
     </row>
     <row r="18" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D18" s="35"/>
     </row>
@@ -1168,7 +1172,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" s="8">
         <f>Home!D12</f>
@@ -1177,7 +1181,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="10">
         <f>Home!D9</f>
@@ -1186,7 +1190,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="11">
         <f>Home!D6</f>
@@ -1195,7 +1199,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7" s="11" t="str">
         <f>Home!D11</f>
@@ -1204,13 +1208,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B9" s="14"/>
     </row>
@@ -1224,7 +1228,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1327,8 +1331,8 @@
       <c r="B14" s="45">
         <v>1</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>11</v>
+      <c r="C14" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D14" s="43">
         <f>'Thermax DR &amp; CR'!S4</f>
@@ -1344,8 +1348,8 @@
       <c r="B16" s="45">
         <v>2</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>12</v>
+      <c r="C16" s="71" t="s">
+        <v>63</v>
       </c>
       <c r="D16" s="43">
         <f>'Vendor DR &amp; CR'!H4</f>
@@ -1361,8 +1365,8 @@
       <c r="B18" s="45">
         <v>3</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>13</v>
+      <c r="C18" s="71" t="s">
+        <v>64</v>
       </c>
       <c r="D18" s="43">
         <f>-'Vendor DR &amp; CR'!G4</f>
@@ -1378,8 +1382,8 @@
       <c r="B20" s="45">
         <v>4</v>
       </c>
-      <c r="C20" s="46" t="s">
-        <v>14</v>
+      <c r="C20" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="D20" s="43">
         <f>-'Thermax DR &amp; CR'!T4</f>
@@ -1396,7 +1400,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D22" s="43"/>
     </row>
@@ -1468,7 +1472,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1511,83 +1517,83 @@
       </c>
       <c r="M3" s="20"/>
       <c r="S3" s="21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N4" s="18"/>
       <c r="R4" s="68" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S4" s="18">
+        <f>SUM(P7:P65535)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="18">
         <f>SUM(O7:O65535)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="18">
-        <f>SUM(P7:P65535)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:20" s="60" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="F6" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="G6" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="H6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="I6" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="60" t="s">
+      <c r="J6" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="L6" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="M6" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="60" t="s">
+      <c r="N6" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="60" t="s">
+      <c r="O6" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="60" t="s">
+      <c r="P6" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="Q6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="60" t="s">
+      <c r="R6" s="60" t="s">
         <v>30</v>
-      </c>
-      <c r="O6" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="60" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1601,7 +1607,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1642,20 +1650,20 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="67" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G4" s="18">
         <f>SUM(D7:D65535)</f>
@@ -1673,19 +1681,19 @@
     </row>
     <row r="6" spans="1:12" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
@@ -1783,22 +1791,22 @@
     </row>
     <row r="3" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" s="60" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
@@ -1857,61 +1865,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="F1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="G1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="H1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="I1" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="J1" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="K1" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="L1" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="M1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="N1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="O1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="P1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="Q1" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="60" t="s">
+      <c r="R1" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="60" t="s">
-        <v>34</v>
-      </c>
       <c r="S1" s="61" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
